--- a/commons-apache-poi/src/test/resources/sample/sample-100.xlsx
+++ b/commons-apache-poi/src/test/resources/sample/sample-100.xlsx
@@ -27,7 +27,7 @@
         <t>사용자 역할은 'MANAGER', 'USER' 만 가능합니다.</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <t>활성화는 'Y'/'N' 입력만 가능합니다.</t>
       </text>
@@ -84,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -113,10 +113,15 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>사용자 성별</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>이메일</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>활성화</t>
         </is>
@@ -125,7 +130,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>userwIt3SjqhZC</t>
+          <t>user21Dui70ghx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -135,25 +140,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>uservdVPP3qBeO</t>
+          <t>userBAps1sO2Pk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -163,16 +172,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -181,7 +194,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>uservc8HpCxLaZ</t>
+          <t>userdb69BaDkIx</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -191,25 +204,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>userFDvXOC1Azz</t>
+          <t>userk3VbyO5k2p</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -219,7 +236,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -227,17 +244,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>user9yEklQfb6w</t>
+          <t>userGVydRrvMKf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -247,16 +268,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -265,7 +290,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>user2mrnSt82oU</t>
+          <t>userHODSnNArFk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -275,7 +300,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -283,17 +308,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>user272ADxCv5b</t>
+          <t>userHGqBBjmnfH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -303,7 +332,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -311,17 +340,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E8"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>userkwqdbLoDGt</t>
+          <t>userGvtqDITGHG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -331,25 +364,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>userJlMBsjzF5d</t>
+          <t>userhLdRVBjahP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -359,7 +396,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -367,8 +404,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E10"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -377,7 +418,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>userbA5vd4WX47</t>
+          <t>userFpGkhWWeEO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -387,25 +428,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>useruNfhbykt5v</t>
+          <t>userT17g2KUuVZ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -415,7 +460,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -423,8 +468,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E12"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -433,7 +482,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>userkKuR7vlHvH</t>
+          <t>userdaQvLEwqy9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -443,25 +492,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>userdAM1V4jqn2</t>
+          <t>user3lcsg3zjMr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -471,25 +524,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>userk7rRJFgYxv</t>
+          <t>user5D75pG6WE7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -499,7 +556,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -507,17 +564,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E15"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>user4eJL7A8chz</t>
+          <t>userOmgMEluZLQ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -527,7 +588,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -535,8 +596,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E16"/>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -545,7 +610,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>userE93HJDy59b</t>
+          <t>useru3uen73vip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -555,25 +620,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>user6jzN8wn91y</t>
+          <t>useroqpefPbeCZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -583,7 +652,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -591,8 +660,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E18"/>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -601,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>userz0OC6R1oiG</t>
+          <t>userr3p7irpjap</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -611,16 +684,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -629,7 +706,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>userm4GNadhro5</t>
+          <t>user0CrpEOw203</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -639,7 +716,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -647,8 +724,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E20"/>
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -657,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>userVAZrXU9M9G</t>
+          <t>userEQlcVkp2DN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -667,16 +748,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -685,7 +770,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>userbN1J5M6fNV</t>
+          <t>userlpqaYcwEdt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -695,7 +780,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -703,17 +788,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E22"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>userjeB1ZR2Fea</t>
+          <t>usertJM5rraJCH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -723,7 +812,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -731,8 +820,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E23"/>
-      <c r="F23" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -741,7 +834,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>userfCeQaMU2oD</t>
+          <t>usercNQl3W9ZzP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -751,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -759,8 +852,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E24"/>
-      <c r="F24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -769,7 +866,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>userEEiZD7EsAj</t>
+          <t>userg23fU3JFIo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -779,16 +876,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -797,7 +898,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>userAYItEjzrHI</t>
+          <t>userffEzieT8tM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -807,7 +908,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -815,8 +916,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E26"/>
-      <c r="F26" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -825,7 +930,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>userEtCUWz3KiT</t>
+          <t>user5FPi1ZoR2L</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -835,7 +940,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -843,8 +948,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E27"/>
-      <c r="F27" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -853,7 +962,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>user87XHsvCC7Z</t>
+          <t>user99chWLR9bt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -863,7 +972,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -871,8 +980,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E28"/>
-      <c r="F28" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -881,7 +994,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>userse0Y55JdtK</t>
+          <t>userC74sBEng0a</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -891,7 +1004,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -899,8 +1012,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E29"/>
-      <c r="F29" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -909,7 +1026,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>user1R5PHPxSAw</t>
+          <t>userOoFi88edYf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -919,16 +1036,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E30"/>
-      <c r="F30" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -937,7 +1058,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>usere5BXELlLzj</t>
+          <t>userALVSkNTpCF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -947,16 +1068,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -965,7 +1090,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>userk4O5Ryrhyq</t>
+          <t>userEvIsieVPBn</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -975,7 +1100,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -983,17 +1108,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E32"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>useriZdxBGQE4Y</t>
+          <t>usereUgBkBy4qO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1003,16 +1132,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E33"/>
-      <c r="F33" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1021,7 +1154,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>userGhPVrMrvmu</t>
+          <t>userQvN64a5Uzu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1031,7 +1164,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1039,8 +1172,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E34"/>
-      <c r="F34" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1049,7 +1186,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>userMIsT0jbBrN</t>
+          <t>userl3msCYsmsU</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1059,7 +1196,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1067,8 +1204,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E35"/>
-      <c r="F35" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1077,7 +1218,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>userFyZNFkCcz3</t>
+          <t>userleKEraEFsd</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1087,7 +1228,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1095,17 +1236,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E36"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>userWLzQmP4Apv</t>
+          <t>userywTwEVpnN5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1115,7 +1260,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1123,17 +1268,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E37"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>userEC7PIHd2bW</t>
+          <t>userDasPx2hbtf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1143,7 +1292,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1151,8 +1300,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E38"/>
-      <c r="F38" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1161,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>userU14WXgP4e6</t>
+          <t>userSEzESICGLy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1171,7 +1324,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1179,17 +1332,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E39"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>usero6KvPStVoq</t>
+          <t>useraLBOP8uOSC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1199,25 +1356,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E40"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>userbznNXLR1DE</t>
+          <t>usersynAQWG5K0</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1227,25 +1388,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E41"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>userTcEJEOIfkY</t>
+          <t>usergBfNou6bK4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1255,7 +1420,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1263,8 +1428,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E42"/>
-      <c r="F42" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1273,7 +1442,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>userkr3PS2rchy</t>
+          <t>userKzJN7NJcV0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1283,7 +1452,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1291,8 +1460,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E43"/>
-      <c r="F43" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1301,7 +1474,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>userhc4mhEAhc4</t>
+          <t>userOsKgPPbLEC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1311,16 +1484,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E44"/>
-      <c r="F44" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1329,7 +1506,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>user10OrZpzLne</t>
+          <t>userWKgAh6LH2k</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1339,7 +1516,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1347,8 +1524,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E45"/>
-      <c r="F45" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1357,7 +1538,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>userJ1Se52jjgw</t>
+          <t>userSn1eiyFrMn</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1367,16 +1548,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E46"/>
-      <c r="F46" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1385,7 +1570,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>usercjli4B6CsN</t>
+          <t>userAy4pJBMwda</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1395,25 +1580,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E47"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>users5gi3gLyev</t>
+          <t>userwUONRoMfFI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1423,25 +1612,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E48"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>useryJozjgjr5a</t>
+          <t>userNNcOyKxbzq</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1451,16 +1644,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E49"/>
-      <c r="F49" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1469,7 +1666,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>userh29B3XsSr8</t>
+          <t>userzxR8uKUvam</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1479,16 +1676,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E50"/>
-      <c r="F50" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1497,7 +1698,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>userkXeOs13U6h</t>
+          <t>userWxA4uYGH1A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1507,25 +1708,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E51"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>userw3CpTAyirB</t>
+          <t>userSeoxCaj7wl</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1535,25 +1740,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E52"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>usereI7xesO8xX</t>
+          <t>useruj6tNyTJpY</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1563,16 +1772,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E53"/>
-      <c r="F53" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1581,7 +1794,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>userUeX2jAW7Dw</t>
+          <t>usera8hQKvlUIv</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1591,7 +1804,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1599,8 +1812,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E54"/>
-      <c r="F54" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1609,7 +1826,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>user4PqhMKDlPh</t>
+          <t>uservtnBsLnNkI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1619,7 +1836,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1627,8 +1844,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E55"/>
-      <c r="F55" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1637,7 +1858,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>userJsXgYtquxI</t>
+          <t>userGjanbyjVko</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1647,7 +1868,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1655,17 +1876,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E56"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>userLFjOXBjCHm</t>
+          <t>userTTKOjmn0As</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1675,25 +1900,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E57"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>user60VMuW6jId</t>
+          <t>userP6kEemEBbc</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1703,7 +1932,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1711,17 +1940,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E58"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>userGmCtz5XvMc</t>
+          <t>userkSquhqB8YC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1731,16 +1964,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E59"/>
-      <c r="F59" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1749,7 +1986,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>userQxwDXYMZeg</t>
+          <t>userwm4K1LyGph</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1759,7 +1996,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1767,17 +2004,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E60"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>user69lV84UmWy</t>
+          <t>userrn3X8pbRhb</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1787,7 +2028,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1795,8 +2036,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E61"/>
-      <c r="F61" t="inlineStr">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1805,7 +2050,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>userLSs5z4FfAp</t>
+          <t>useraqR8c2x6iC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1815,16 +2060,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E62"/>
-      <c r="F62" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1833,7 +2082,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>userk2aAt0jRd4</t>
+          <t>userMDqjdoLmbv</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1843,7 +2092,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1851,17 +2100,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E63"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>userKeI5W9S0Ok</t>
+          <t>useruLbXNgqv2M</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1871,7 +2124,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1879,17 +2132,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E64"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>usersxFpSjKgPG</t>
+          <t>userTg4RBlSJd5</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1899,25 +2156,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E65"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>userwRzARRD44E</t>
+          <t>userEcjf25OkFp</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1927,7 +2188,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1935,17 +2196,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E66"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>user1eVYyNlCEE</t>
+          <t>userNNJVckLtBY</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1955,7 +2220,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1963,8 +2228,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E67"/>
-      <c r="F67" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1973,7 +2242,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>userB0uDtgU2Og</t>
+          <t>user0hr3wYDHC1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1983,7 +2252,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1991,8 +2260,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E68"/>
-      <c r="F68" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2001,7 +2274,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>user4ZnmeItU5y</t>
+          <t>userLofQ0iBkYb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2011,16 +2284,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E69"/>
-      <c r="F69" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2029,7 +2306,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>userkChkEBnyNQ</t>
+          <t>usere4sCYJGreG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2039,7 +2316,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2047,8 +2324,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E70"/>
-      <c r="F70" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2057,7 +2338,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>usermwYggKLioe</t>
+          <t>userASYsCi0vph</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2067,25 +2348,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E71"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>userTK2fsw3iOB</t>
+          <t>usergSr8foxn7w</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2095,25 +2380,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E72"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>userUkSWi6y7pA</t>
+          <t>usergfMokCPecw</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2123,16 +2412,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2141,7 +2434,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>usernWtErADAWl</t>
+          <t>user3ChBKGCX6Q</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2151,7 +2444,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2159,17 +2452,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E74"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>userc4NZ1RvJw8</t>
+          <t>userMHVGcGstiZ</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2179,7 +2476,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2187,8 +2484,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E75"/>
-      <c r="F75" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2197,7 +2498,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>usertXFpRzsn28</t>
+          <t>userXeNfdU4Rva</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2207,7 +2508,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2215,8 +2516,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E76"/>
-      <c r="F76" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2225,7 +2530,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>userM7Rqj42iyh</t>
+          <t>userphxDNWHLyf</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2235,25 +2540,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E77"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>userrVBlALwdrs</t>
+          <t>userOrWSnt7IqO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2263,25 +2572,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E78"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>usertLmHvbUyIb</t>
+          <t>userE4w469OsQB</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2291,7 +2604,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2299,17 +2612,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E79"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>user4M9QAd9WvV</t>
+          <t>userF9h4uLZfKk</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2319,7 +2636,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2327,8 +2644,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E80"/>
-      <c r="F80" t="inlineStr">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2337,7 +2658,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>usereA55ldMruV</t>
+          <t>user4qVlQxJpWk</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2347,16 +2668,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E81"/>
-      <c r="F81" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2365,7 +2690,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>userHzIjJXIrd2</t>
+          <t>useraC5qhDolwF</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2375,16 +2700,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E82"/>
-      <c r="F82" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2393,7 +2722,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>userGYGUiQDEXL</t>
+          <t>usergX3h1ja6Np</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2403,16 +2732,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E83"/>
-      <c r="F83" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2421,7 +2754,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>userNS60ghgZOx</t>
+          <t>userYng1MDVRkM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2431,7 +2764,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2439,17 +2772,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E84"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>useriaH0ghjN7r</t>
+          <t>usersvp4N45nIm</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2459,16 +2796,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E85"/>
-      <c r="F85" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2477,7 +2818,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>useriEsnIyFd9W</t>
+          <t>userRMkcruSE3q</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2487,16 +2828,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E86"/>
-      <c r="F86" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2505,7 +2850,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>userUbzSQjF7AN</t>
+          <t>user44wuXK08it</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2515,7 +2860,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2523,8 +2868,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E87"/>
-      <c r="F87" t="inlineStr">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2533,7 +2882,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>userUZbfVeWUQg</t>
+          <t>usermNixNmQiCX</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2543,16 +2892,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E88"/>
-      <c r="F88" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2561,7 +2914,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>user88uPeF0ZWn</t>
+          <t>userHwsWHbrEpW</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2571,25 +2924,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E89"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>userSKMqP7djcv</t>
+          <t>usercgsr0sArt2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2599,7 +2956,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2607,8 +2964,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E90"/>
-      <c r="F90" t="inlineStr">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2617,7 +2978,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>userq5tENkm382</t>
+          <t>useruHuoaX4ylW</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2627,7 +2988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2635,17 +2996,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E91"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>userLmmem7uDvF</t>
+          <t>userWts0UYwUtW</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2655,7 +3020,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2663,17 +3028,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E92"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>userS7jEbagGWg</t>
+          <t>userKzJJ2VW55P</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2683,25 +3052,29 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E93"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>userEg2cw8jxQn</t>
+          <t>user5CuZ0ZeziR</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2711,7 +3084,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2719,17 +3092,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E94"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>uservfsdFi6nfF</t>
+          <t>usersxQbLqBKbT</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2739,16 +3116,20 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E95"/>
-      <c r="F95" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2757,7 +3138,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>userujvcpujbA3</t>
+          <t>user4pHR2y9UU1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2767,7 +3148,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2775,17 +3156,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E96"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>user6VyvLbJRr5</t>
+          <t>userk1An5HYM4G</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2795,16 +3180,20 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E97"/>
-      <c r="F97" t="inlineStr">
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2813,7 +3202,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>userPQtdO0LO4S</t>
+          <t>user1cniSfri4F</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2823,25 +3212,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>USER</t>
-        </is>
-      </c>
-      <c r="E98"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>userrpLsDhZUtq</t>
+          <t>userJjKzLuu0k0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2851,7 +3244,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2859,8 +3252,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E99"/>
-      <c r="F99" t="inlineStr">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2869,7 +3266,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>user5QaKij0CSU</t>
+          <t>userOPxbveNmSp</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2879,7 +3276,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2887,17 +3284,21 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E100"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>userHVbnuwlb07</t>
+          <t>userutPKDDyXNz</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2907,7 +3308,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>JRDa7lEm5C</t>
+          <t>Y6R2UGDtVQ</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2915,8 +3316,12 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="E101"/>
-      <c r="F101" t="inlineStr">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
